--- a/sources/case/Regular.xlsx
+++ b/sources/case/Regular.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>CaseID</t>
   </si>
@@ -86,9 +86,6 @@
     <t>effective_date</t>
   </si>
   <si>
-    <t>2017-10-19T16:36:35+08:00</t>
-  </si>
-  <si>
     <t>notify_content</t>
   </si>
   <si>
@@ -122,21 +119,12 @@
     <t>tenant_id</t>
   </si>
   <si>
-    <t>00b19169-fc38-4e51-a99f-98f31ccaa46d</t>
-  </si>
-  <si>
     <t>microfastup-006</t>
   </si>
   <si>
     <t>审批测试06</t>
   </si>
   <si>
-    <t>uuid</t>
-  </si>
-  <si>
-    <t>0c4fe812-b4a2-11e7-83f3-5254001aba5d</t>
-  </si>
-  <si>
     <t>is_deleted</t>
   </si>
   <si>
@@ -146,43 +134,19 @@
     <t>user_id</t>
   </si>
   <si>
-    <t>5ceb080b-0e25-11e7-b0e5-00163e007053</t>
-  </si>
-  <si>
-    <t>84d3d864-b3dd-11e7-83f3-5254001aba5d</t>
-  </si>
-  <si>
     <t>extra</t>
   </si>
   <si>
-    <t>{"employee_id":"b8a23753-0f75-11e7-9aa4-00163e007053","service_order_id":"","timeline_id":""}</t>
-  </si>
-  <si>
-    <t>北京微迅</t>
-  </si>
-  <si>
-    <t>b89d7d04-0f75-11e7-9aa4-00163e007053</t>
-  </si>
-  <si>
     <t>approval_create</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>2017-10-20T15:49:21+08:00</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
     <t>123123</t>
-  </si>
-  <si>
-    <t>测试工程师</t>
-  </si>
-  <si>
-    <t>fa59b482-0f75-11e7-9aa4-00163e007053</t>
   </si>
   <si>
     <t>status</t>
@@ -200,6 +164,24 @@
   </si>
   <si>
     <t>Regular_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-19T16:36:35+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-20T15:49:21+08:00</t>
+  </si>
+  <si>
+    <t>$csv{data.Tenant.microfastup.tenant_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Tenant.microfastup.user_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"employee_id":"$csv{data.Auth.user_houlong.employee_id}","service_order_id":"","timeline_id":""}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +549,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -595,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -634,24 +616,24 @@
         <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -666,22 +648,22 @@
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -693,151 +675,144 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="87.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="87.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
         <v>40</v>
       </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" t="s">
-        <v>20</v>
-      </c>
       <c r="P1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="Q1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
       <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
         <v>39</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" t="s">
-        <v>46</v>
       </c>
       <c r="N2" t="s">
         <v>48</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="P2" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="Q2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="R2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
